--- a/lab3/src/report3.xlsx
+++ b/lab3/src/report3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baohua yu\Desktop\SMU 2019FALL\CS3353\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289979BC-24D9-4690-B1E1-D6318ED6A971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40F7170-B457-49BC-BA40-7DEAD65DB612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3747A7FC-D9BF-4A2E-80E7-460881BB2004}"/>
+    <workbookView xWindow="-8350" yWindow="-70" windowWidth="19420" windowHeight="10420" xr2:uid="{3747A7FC-D9BF-4A2E-80E7-460881BB2004}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2755,15 +2754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>392111</xdr:colOff>
+      <xdr:colOff>392112</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>150813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3126,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FE05ED-A20A-4626-842A-60E1E705D1C2}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
